--- a/skills.xlsx
+++ b/skills.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonykukal/Desktop/MR_database_4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C464D6C-E1EF-EC47-AD3D-957A25E34482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA088064-5E3B-8941-889A-C916B593F9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="760" windowWidth="29400" windowHeight="17180" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17180" tabRatio="180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4810" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4809" uniqueCount="1980">
   <si>
     <t>ID</t>
   </si>
@@ -5976,9 +5976,6 @@
   </si>
   <si>
     <t>Resources</t>
-  </si>
-  <si>
-    <t>/Users/anthonykukal/Desktop/MR_database_4/skills.xlsx</t>
   </si>
 </sst>
 </file>
@@ -6369,8 +6366,8 @@
   <dimension ref="A1:S1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A646" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D714" sqref="D714"/>
+      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D712" sqref="D712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33403,7 +33400,7 @@
       <c r="R713" s="9"/>
       <c r="S713" s="9"/>
     </row>
-    <row r="714" spans="1:19" ht="37" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A714" s="8"/>
       <c r="B714" s="8" t="s">
         <v>1392</v>
@@ -33411,9 +33408,7 @@
       <c r="C714" s="8">
         <v>10</v>
       </c>
-      <c r="D714" s="9" t="s">
-        <v>1980</v>
-      </c>
+      <c r="D714" s="9"/>
       <c r="E714" s="9" t="s">
         <v>1067</v>
       </c>
